--- a/server/branch/protected/models/excel/example/水质监测基本情况模板.xlsx
+++ b/server/branch/protected/models/excel/example/水质监测基本情况模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="8780" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,19 +168,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -193,7 +180,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -244,16 +231,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -531,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,21 +523,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" activeCellId="1" sqref="H6 H6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="19">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="19">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -566,456 +550,433 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" s="14" customFormat="1">
+    </row>
+    <row r="2" spans="1:16" s="14" customFormat="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" s="14" customFormat="1">
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" s="14" customFormat="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="J4" s="5"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="J7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1027,13 +988,12 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1046,9 +1006,8 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1065,22 +1024,19 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/server/branch/protected/models/excel/example/水质监测基本情况模板.xlsx
+++ b/server/branch/protected/models/excel/example/水质监测基本情况模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,7 +526,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -576,9 +576,15 @@
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" s="14" customFormat="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="15">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2323</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2112</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
